--- a/excelx/test.xlsx
+++ b/excelx/test.xlsx
@@ -371,6 +371,7 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
   </mergeCells>
